--- a/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/106.filtro_avancado/82+-+Filtro+Avançado.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/5.basico_formatacao_de_tabela_e_analise_de_dados/106.filtro_avancado/82+-+Filtro+Avançado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\5.basico_formatacao_de_tabela_e_analise_de_dados\106.filtro_avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7962546-CED9-4E73-93DC-A791A8BD1F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B53D5B0-7596-4B20-AEDC-E11046CA17C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 01" sheetId="24" r:id="rId1"/>
@@ -23,11 +23,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exercício 01'!$B$6:$F$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exercício 02'!$B$6:$D$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exercício 03'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Exercício 04'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Exercício 05'!#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">'Exercício 02'!$F$12:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exercício 03'!$B$6:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Exercício 04'!$B$6:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Exercício 05'!$B$6:$D$21</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'Exercício 01'!$J$6:$N$6</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">'Exercício 02'!$I$6:$K$6</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'Exercício 01'!$H$6:$H$8</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'Exercício 02'!$F$6:$G$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'Exercício 03'!$F$5:$G$6</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'Exercício 04'!$F$5:$H$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'Exercício 05'!$F$5:$G$6</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -469,11 +474,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -502,9 +507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899747DD-F910-4726-A4E6-BD4C9A6B746C}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="B6:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,10 +815,15 @@
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="16" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
@@ -821,18 +831,18 @@
       <c r="E1" s="8"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="D2" s="15"/>
       <c r="E2" s="9"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -852,8 +862,23 @@
       <c r="H6" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -869,11 +894,26 @@
       <c r="F7" s="13">
         <v>26771</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="16">
+        <v>23351</v>
+      </c>
+      <c r="M7" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>26771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -889,11 +929,26 @@
       <c r="F8" s="13">
         <v>29921</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="16">
+        <v>20252</v>
+      </c>
+      <c r="M8" s="10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N8" s="13">
+        <v>29921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -909,8 +964,23 @@
       <c r="F9" s="13">
         <v>22759</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="16">
+        <v>14440</v>
+      </c>
+      <c r="M9" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>22759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -926,8 +996,23 @@
       <c r="F10" s="13">
         <v>30123</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="16">
+        <v>13964</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="N10" s="13">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -943,8 +1028,23 @@
       <c r="F11" s="13">
         <v>31606</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="16">
+        <v>9750</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <v>27789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -960,8 +1060,23 @@
       <c r="F12" s="13">
         <v>27789</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="16">
+        <v>9512</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>29121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -977,8 +1092,23 @@
       <c r="F13" s="13">
         <v>29121</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="16">
+        <v>7049</v>
+      </c>
+      <c r="M13" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -994,8 +1124,23 @@
       <c r="F14" s="13">
         <v>31804</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5368</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N14" s="13">
+        <v>33658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1011,8 +1156,23 @@
       <c r="F15" s="13">
         <v>32256</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="16">
+        <v>3517</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>35251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1378,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA896E1-B544-40F0-8D20-CE40D0541236}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,10 +1552,13 @@
     <col min="5" max="5" width="10.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
@@ -1403,18 +1566,18 @@
       <c r="E1" s="8"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="D2" s="15"/>
       <c r="E2" s="9"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="20" t="s">
         <v>49</v>
@@ -1432,138 +1595,183 @@
       <c r="G6" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="22">
+        <v>905</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="J7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="22">
+      <c r="K7" s="22">
         <v>595</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="22">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="22">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D10" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="22">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="22">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22">
-        <v>830</v>
+        <v>345</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="22">
-        <v>971</v>
+        <v>672</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22">
-        <v>381</v>
+        <v>971</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="22">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -1573,10 +1781,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="22">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1586,23 +1794,23 @@
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
-        <v>255</v>
+        <v>865</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="22">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1622,13 +1830,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22">
-        <v>955</v>
+        <v>524</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1693,6 +1901,9 @@
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D21">
+    <sortCondition ref="B7:B21"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1700,10 +1911,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E3C134-BBB5-4C4A-AA3C-C10A1E93C857}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,131 +1975,131 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D7" s="22">
-        <v>595</v>
+        <v>905</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D10" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="22">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22">
-        <v>830</v>
+        <v>345</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="22">
-        <v>971</v>
+        <v>672</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22">
-        <v>381</v>
+        <v>971</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="22">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -1897,10 +2109,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="22">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1910,23 +2122,23 @@
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
-        <v>255</v>
+        <v>865</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="22">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1944,15 +2156,15 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22">
-        <v>955</v>
+        <v>524</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -2017,6 +2229,9 @@
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D21">
+    <sortCondition ref="B7:B21"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2024,10 +2239,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5CF5C0-3C09-434A-9A31-3BE9921DAA3D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,7 +2325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
         <v>53</v>
       </c>
@@ -2135,7 +2351,7 @@
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>53</v>
       </c>
@@ -2148,7 +2364,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>56</v>
       </c>
@@ -2161,7 +2377,7 @@
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
@@ -2174,7 +2390,7 @@
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>55</v>
       </c>
@@ -2200,7 +2416,7 @@
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
@@ -2213,7 +2429,7 @@
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>51</v>
       </c>
@@ -2226,7 +2442,7 @@
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>53</v>
       </c>
@@ -2239,7 +2455,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
@@ -2265,7 +2481,7 @@
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>53</v>
       </c>
@@ -2358,10 +2574,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33182F2A-84FC-4817-AB48-036A636BFD7A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2422,176 +2639,176 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D7" s="22">
-        <v>400</v>
+        <v>905</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="22">
-        <v>620</v>
+        <v>381</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" s="22">
-        <v>905</v>
+        <v>320</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D10" s="22">
-        <v>442</v>
+        <v>955</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="22">
-        <v>524</v>
+        <v>400</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22">
-        <v>830</v>
+        <v>345</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="22">
-        <v>971</v>
+        <v>672</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22">
-        <v>381</v>
+        <v>971</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="22">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="22">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="22">
-        <v>255</v>
+        <v>865</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" s="22">
-        <v>320</v>
+        <v>255</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>53</v>
       </c>
@@ -2604,15 +2821,15 @@
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22">
-        <v>955</v>
+        <v>524</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -2677,6 +2894,9 @@
     <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:D21">
+    <sortCondition ref="B7:B21"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2698,12 +2918,12 @@
     <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
